--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284268.3475264956</v>
+        <v>339099.2129754184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347744</v>
+        <v>9584464.643054403</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8778504.33406195</v>
+        <v>8343623.815691859</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D2" t="n">
-        <v>129.3420634549347</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57.96571614961795</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.04897529147662</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345807</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8461210887088</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8461210887088</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.41405905276496</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>146.8461210887088</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>129.3420634549347</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>98.74883103803275</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>131.1189721502596</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>108.5166779089044</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>21.41405905276496</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H8" t="n">
-        <v>88.09081815943067</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>119.362414515198</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>28.8346150649082</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>127.429877995854</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.4416819816008</v>
+        <v>105.5701994211901</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>152.5106644331264</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969284</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.34481037435889</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>180.2959383279805</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>120.0680993509752</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>202.1342771591547</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>7.202273803614999</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657079</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.3940888401038</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>156.3643165376078</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>40.32753059712404</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>78.78083674902071</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414557</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609184</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6370175398358651</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>19.78589926923084</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>96.97390940101933</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>90.98010614281331</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2140,7 +2140,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>127.6752559270063</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>59.50286836346307</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>361.9371513441232</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>356.9651380164159</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>261.817310378615</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>250.3451038329817</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>107.0704956909094</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2848,19 +2848,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>4.013442961282176</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>125.7998394252166</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>19.78589926923118</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>148.4348925031071</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3082,10 +3082,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>108.5262022477614</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>19.8400638351355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="V34" t="n">
-        <v>100.2063103874222</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>200.805213622945</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>65.72456219185366</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>4.880279655986169</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.2925683059788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>120.6088074159611</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>271.8036819298781</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>65.79537822841606</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>148.4348925031071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>217.2903866095805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.6626697667473</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>168.4013722874436</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610927</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>138.0957464459779</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>271.8036819298772</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>113.6610168227338</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.3962386314752</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="C2" t="n">
-        <v>142.3962386314752</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709671</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709671</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709671</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709671</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183029</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458398</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066262</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588568</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735312</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548353</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548353</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548353</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548353</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548353</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="U2" t="n">
-        <v>439.0550691137153</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="V2" t="n">
-        <v>439.0550691137153</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="W2" t="n">
-        <v>439.0550691137153</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="X2" t="n">
-        <v>439.0550691137153</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="Y2" t="n">
-        <v>290.7256538725952</v>
+        <v>346.7673010107287</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.6518274448598</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C3" t="n">
-        <v>212.6518274448598</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D3" t="n">
-        <v>212.6518274448598</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E3" t="n">
-        <v>64.32241220373976</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616825</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415669</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M3" t="n">
-        <v>286.5382069752474</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N3" t="n">
-        <v>431.9158668530691</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1875401335679</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P3" t="n">
-        <v>587.3844843548353</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548353</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R3" t="n">
-        <v>509.3106579270999</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S3" t="n">
-        <v>509.3106579270999</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T3" t="n">
-        <v>360.9812426859799</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U3" t="n">
-        <v>360.9812426859799</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V3" t="n">
-        <v>360.9812426859799</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="W3" t="n">
-        <v>212.6518274448598</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X3" t="n">
-        <v>212.6518274448598</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y3" t="n">
-        <v>212.6518274448598</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543247</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510284</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665727</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665727</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665727</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665727</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665727</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665727</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665727</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665727</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665727</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709671</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.4065201693368</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="C5" t="n">
-        <v>160.0771049282168</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D5" t="n">
-        <v>160.0771049282168</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E5" t="n">
-        <v>160.0771049282168</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F5" t="n">
-        <v>160.0771049282168</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H5" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183029</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458398</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066259</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588563</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735311</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548353</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548353</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548353</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548353</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T5" t="n">
-        <v>456.7359354104568</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U5" t="n">
-        <v>456.7359354104568</v>
+        <v>348.704346521884</v>
       </c>
       <c r="V5" t="n">
-        <v>456.7359354104568</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="W5" t="n">
-        <v>456.7359354104568</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="X5" t="n">
-        <v>308.4065201693368</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="Y5" t="n">
-        <v>308.4065201693368</v>
+        <v>122.2141240472906</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>439.0550691137153</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="C6" t="n">
-        <v>290.7256538725952</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="D6" t="n">
-        <v>158.2822476602117</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="E6" t="n">
-        <v>158.2822476602117</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="F6" t="n">
-        <v>11.74768968709671</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709671</v>
+        <v>112.3476120565112</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616825</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415669</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M6" t="n">
-        <v>286.5382069752474</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N6" t="n">
-        <v>393.5224324951112</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O6" t="n">
-        <v>511.79410577561</v>
+        <v>387.4830745953196</v>
       </c>
       <c r="P6" t="n">
-        <v>587.3844843548353</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548353</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548353</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548353</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T6" t="n">
-        <v>587.3844843548353</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U6" t="n">
-        <v>587.3844843548353</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="V6" t="n">
-        <v>587.3844843548353</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="W6" t="n">
-        <v>587.3844843548353</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="X6" t="n">
-        <v>587.3844843548353</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="Y6" t="n">
-        <v>439.0550691137153</v>
+        <v>221.9604180251015</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543247</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510284</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665727</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O7" t="n">
-        <v>33.37805236665727</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P7" t="n">
-        <v>33.37805236665727</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.37805236665727</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R7" t="n">
-        <v>33.37805236665727</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S7" t="n">
-        <v>33.37805236665727</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T7" t="n">
-        <v>33.37805236665727</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U7" t="n">
-        <v>33.37805236665727</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709671</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.8222414097404</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="C8" t="n">
-        <v>482.8222414097404</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="D8" t="n">
-        <v>482.8222414097404</v>
+        <v>311.0103700789526</v>
       </c>
       <c r="E8" t="n">
-        <v>482.8222414097404</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="F8" t="n">
-        <v>293.4024563932556</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="G8" t="n">
-        <v>103.9826713767709</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678495</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>138.5837562783352</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262252</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S8" t="n">
-        <v>672.2420264262252</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T8" t="n">
-        <v>672.2420264262252</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="U8" t="n">
-        <v>672.2420264262252</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="V8" t="n">
-        <v>672.2420264262252</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="W8" t="n">
-        <v>672.2420264262252</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="X8" t="n">
-        <v>672.2420264262252</v>
+        <v>457.1468919688944</v>
       </c>
       <c r="Y8" t="n">
-        <v>672.2420264262252</v>
+        <v>457.1468919688944</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>380.2736144004534</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="C9" t="n">
-        <v>380.2736144004534</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="D9" t="n">
-        <v>380.2736144004534</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="E9" t="n">
-        <v>221.0361593949979</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="F9" t="n">
-        <v>74.50160142188287</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G9" t="n">
-        <v>74.50160142188287</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>74.50160142188287</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>50.41925783498756</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>386.8913402620005</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>504.0242257254407</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9764748623419</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="S9" t="n">
-        <v>569.6933994169382</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="T9" t="n">
-        <v>380.2736144004534</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="U9" t="n">
-        <v>380.2736144004534</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="V9" t="n">
-        <v>380.2736144004534</v>
+        <v>432.5641047942274</v>
       </c>
       <c r="W9" t="n">
-        <v>380.2736144004534</v>
+        <v>286.4275829042857</v>
       </c>
       <c r="X9" t="n">
-        <v>380.2736144004534</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="Y9" t="n">
-        <v>380.2736144004534</v>
+        <v>157.7105344236251</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.62132134232</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>845.18849443293</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.806928794324</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W11" t="n">
-        <v>2403.038273524209</v>
+        <v>1683.55651637267</v>
       </c>
       <c r="X11" t="n">
-        <v>2029.572515263129</v>
+        <v>1310.09075811159</v>
       </c>
       <c r="Y11" t="n">
-        <v>1678.62132134232</v>
+        <v>1203.454193039681</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>686.8333161061965</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>512.3802868250696</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>840.8844923012737</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.3679798527295</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="C13" t="n">
-        <v>511.4317969248226</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124868</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S13" t="n">
-        <v>729.2011216450112</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T13" t="n">
-        <v>729.2011216450112</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U13" t="n">
-        <v>729.2011216450112</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V13" t="n">
-        <v>729.2011216450112</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W13" t="n">
-        <v>729.2011216450112</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="X13" t="n">
-        <v>729.2011216450112</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="Y13" t="n">
-        <v>729.2011216450112</v>
+        <v>338.1722376183965</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1263.548871187317</v>
+        <v>508.1105870929867</v>
       </c>
       <c r="C14" t="n">
-        <v>1263.548871187317</v>
+        <v>508.1105870929867</v>
       </c>
       <c r="D14" t="n">
-        <v>905.2831725805665</v>
+        <v>508.1105870929867</v>
       </c>
       <c r="E14" t="n">
-        <v>519.4949199823222</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>1451.655119961722</v>
       </c>
       <c r="W14" t="n">
-        <v>2413.75380148833</v>
+        <v>1098.886464691608</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.28804322725</v>
+        <v>894.7104271571086</v>
       </c>
       <c r="Y14" t="n">
-        <v>1650.148711251439</v>
+        <v>894.7104271571086</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>505.3506432219704</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>1571.516725807463</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1343.415135940727</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1089.177779212525</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>881.3262790069923</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>673.5659802420384</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>553.2677753977071</v>
+        <v>362.3455929622073</v>
       </c>
       <c r="C16" t="n">
-        <v>384.3315924698002</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="D16" t="n">
-        <v>234.2149530574645</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="E16" t="n">
-        <v>234.2149530574645</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T16" t="n">
-        <v>699.1203903877109</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U16" t="n">
-        <v>699.1203903877109</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V16" t="n">
-        <v>699.1203903877109</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W16" t="n">
-        <v>699.1203903877109</v>
+        <v>362.3455929622073</v>
       </c>
       <c r="X16" t="n">
-        <v>699.1203903877109</v>
+        <v>362.3455929622073</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.1203903877109</v>
+        <v>362.3455929622073</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5515,19 +5515,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5551,16 +5551,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2345.167438673965</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="18">
@@ -5585,52 +5585,52 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
         <v>1525.370990471663</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>403.1511359853714</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="C19" t="n">
-        <v>234.2149530574645</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
         <v>234.2149530574645</v>
@@ -5673,52 +5673,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U19" t="n">
-        <v>631.784138943829</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V19" t="n">
-        <v>631.784138943829</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W19" t="n">
-        <v>631.784138943829</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="X19" t="n">
-        <v>403.7945880458117</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="Y19" t="n">
-        <v>403.7945880458117</v>
+        <v>699.1203903877106</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1715.892666966216</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="C20" t="n">
-        <v>1715.892666966216</v>
+        <v>1682.315766249262</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1324.050067642511</v>
       </c>
       <c r="E20" t="n">
         <v>1232.150970528558</v>
@@ -5752,16 +5752,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X20" t="n">
-        <v>2492.63183900615</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y20" t="n">
-        <v>2102.492507030338</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C22" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5940,22 +5940,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>791.9221008414108</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>502.8192339670544</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="V22" t="n">
-        <v>502.8192339670544</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="W22" t="n">
-        <v>213.4020639300938</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="X22" t="n">
-        <v>213.4020639300938</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.4020639300938</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1632.511388127729</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.548871187317</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D23" t="n">
-        <v>905.2831725805665</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E23" t="n">
-        <v>519.4949199823222</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269321</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X23" t="n">
-        <v>2388.243802269321</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="Y23" t="n">
-        <v>1998.10447029351</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6135,61 +6135,61 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
         <v>848.0708164780106</v>
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1127.748203495404</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C26" t="n">
-        <v>863.2862738200351</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D26" t="n">
-        <v>863.2862738200351</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410102</v>
+        <v>2756.46356326495</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066532</v>
+        <v>2425.400675921379</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796417</v>
+        <v>2425.400675921379</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535337</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y26" t="n">
-        <v>1514.348043559526</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>533.4780323548191</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C28" t="n">
-        <v>364.5418494269122</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D28" t="n">
-        <v>214.4252100145765</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6417,19 +6417,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V28" t="n">
-        <v>715.1264971850588</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W28" t="n">
-        <v>715.1264971850588</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X28" t="n">
-        <v>715.1264971850588</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.1264971850588</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1944.904841306683</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C29" t="n">
-        <v>1575.942324366272</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G29" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3005.283422731313</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>3005.283422731313</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2652.514767461199</v>
       </c>
       <c r="X29" t="n">
-        <v>2071.975386180639</v>
+        <v>2279.049009200119</v>
       </c>
       <c r="Y29" t="n">
-        <v>1944.904841306683</v>
+        <v>1888.909677224308</v>
       </c>
     </row>
     <row r="30">
@@ -6518,70 +6518,70 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U30" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6654,19 +6654,19 @@
         <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>699.1203903877109</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="V31" t="n">
-        <v>444.4359021818241</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W31" t="n">
-        <v>294.5016673302007</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X31" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="32">
@@ -6703,7 +6703,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3105.692726623375</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3105.692726623375</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2774.629839279804</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2421.86118400969</v>
       </c>
       <c r="X32" t="n">
-        <v>2051.9349176603</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y32" t="n">
-        <v>1661.795585684488</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>530.2513404403937</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>361.3151575124868</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6891,19 +6891,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V34" t="n">
-        <v>819.6685104773544</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W34" t="n">
-        <v>530.2513404403937</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X34" t="n">
-        <v>530.2513404403937</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y34" t="n">
-        <v>530.2513404403937</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2071.975386180639</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C35" t="n">
-        <v>1703.012869240227</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D35" t="n">
-        <v>1344.747170633477</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E35" t="n">
-        <v>958.9589180352325</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>547.973013245625</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>132.9005630906215</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6943,10 +6943,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>2071.975386180639</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>2071.975386180639</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>551.0642295677645</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="C37" t="n">
-        <v>382.1280466398576</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="D37" t="n">
-        <v>382.1280466398576</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574645</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>71.44169184227044</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
@@ -7122,25 +7122,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="Y37" t="n">
-        <v>732.7126943980043</v>
+        <v>218.3316393401808</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1647.321240915451</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7174,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2797.526171216464</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2424.060412955384</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>2033.921080979572</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H39" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>449.8213709509845</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>280.8851880230776</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>280.8851880230776</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>132.9720944406845</v>
       </c>
       <c r="F40" t="n">
         <v>66.51211643218342</v>
@@ -7362,22 +7362,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>444.4359021818241</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>294.5016673302007</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X40" t="n">
-        <v>66.51211643218342</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.51211643218342</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1548.393281286113</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C41" t="n">
-        <v>1179.430764345701</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D41" t="n">
-        <v>821.1650657389509</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E41" t="n">
-        <v>821.1650657389509</v>
+        <v>731.3215358191801</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7411,10 +7411,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792695</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W41" t="n">
-        <v>2531.483610522581</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X41" t="n">
-        <v>2158.017852261501</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y41" t="n">
-        <v>1767.878520285689</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
         <v>66.51211643218342</v>
@@ -7569,52 +7569,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U43" t="n">
-        <v>699.1203903877109</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V43" t="n">
-        <v>699.1203903877109</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W43" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X43" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y43" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.321240915451</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E44" t="n">
         <v>892.5704713767946</v>
@@ -7639,37 +7639,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7678,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V44" t="n">
-        <v>2797.526171216464</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W44" t="n">
-        <v>2797.526171216464</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X44" t="n">
-        <v>2424.060412955384</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y44" t="n">
-        <v>2033.921080979572</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>478.3278112441808</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C46" t="n">
-        <v>478.3278112441808</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D46" t="n">
-        <v>328.211171831845</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>328.211171831845</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>181.3212243339347</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372932</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>699.1203903877109</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U46" t="n">
-        <v>699.1203903877109</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V46" t="n">
-        <v>699.1203903877109</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W46" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X46" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y46" t="n">
-        <v>478.3278112441808</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747717</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819054</v>
       </c>
       <c r="D2" t="n">
-        <v>225.3409781657483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>314.2110964526092</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>262.6696604654718</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328709</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880633</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U2" t="n">
-        <v>104.3348437827354</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.3918175673448</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>10.79895936669212</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>93.02023710190727</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354542</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J3" t="n">
-        <v>22.7749124282733</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,25 +22670,25 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T3" t="n">
-        <v>48.87899782081573</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W3" t="n">
-        <v>104.8488620722108</v>
+        <v>170.0756958270784</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,55 +22719,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818779</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776025</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474336</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482523</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270546</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>265.108939283826</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>218.4267706822987</v>
+        <v>253.1602316460838</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>266.3980159715228</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328709</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880633</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T5" t="n">
-        <v>84.74226261785702</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>152.443699216152</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452112</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924893</v>
       </c>
       <c r="X5" t="n">
-        <v>222.8849795897602</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>25.86237789960691</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>16.32609341437913</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>49.12840254649655</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354542</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J6" t="n">
-        <v>22.7749124282733</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,22 +22907,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345807</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>113.7613470855985</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.83657468859553</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,52 +22956,52 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818779</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776025</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474336</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482523</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270546</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
-        <v>230.723584271063</v>
+        <v>248.5122658350244</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>210.0078849496407</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>237.2552134012195</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H8" t="n">
-        <v>228.8030079467916</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>229.878554202215</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23108,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.3940557223415908</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.598280563555</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681384</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>88.12543047838298</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>107.0198264898773</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>78.34310720762346</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,28 +23217,28 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
-        <v>199.9216970693936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>198.991834717043</v>
       </c>
     </row>
     <row r="11">
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.79625667445276</v>
+        <v>280.6677392348635</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>14.02251921674099</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.4871698075784</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>106.2270600086105</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>229.1728693664379</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>167.5968235193143</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>165.5062251847008</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.43789134183348</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>130.1586817989832</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>342.4063110663565</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>270.4601319683923</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.1949626421014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>147.460921829397</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>257.7091322196636</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>290.9502639294485</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,16 +24180,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>91.87369334916289</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>226.7089698421498</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20.79669031935742</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>12.76596266205308</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24420,7 +24420,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>214.1238107588402</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.4966259053222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>103.4555813923925</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.6500681259203134</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>38.35055233202189</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,13 +24657,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>48.43473977703323</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>246.9817289976198</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.438099230837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>266.4259389363817</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>138.0881058334839</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>95.39176789185871</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>349.8910368433336</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,13 +25131,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>214.1238107588403</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9313329364058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>228.8832021954668</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>161.1455286030421</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.29208504611597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>173.9989569713593</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>77.4372867875349</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>79.62566979451519</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25602,19 +25602,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>138.0881058334839</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>165.4434550539001</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.2133759749642</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11.43060789449373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>198.5902886500599</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>216.5872951747051</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>55.9485765402577</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>52.36479143629447</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>409992.2446053787</v>
+        <v>362616.6230072702</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>409992.2446053789</v>
+        <v>379382.0342027747</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441595.0580613399</v>
+        <v>408111.9599248169</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>871958.590027186</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871958.5900271864</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871958.5900271867</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>871958.5900271866</v>
+        <v>871958.5900271864</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871958.5900271861</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271861</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>871958.5900271864</v>
+        <v>871958.5900271862</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131506.9463828572</v>
+        <v>116310.9922853508</v>
       </c>
       <c r="C2" t="n">
-        <v>131506.9463828573</v>
+        <v>121688.5770084371</v>
       </c>
       <c r="D2" t="n">
-        <v>141643.6978687317</v>
+        <v>130903.8362022996</v>
       </c>
       <c r="E2" t="n">
-        <v>279684.830763437</v>
+        <v>219515.2902175503</v>
       </c>
       <c r="F2" t="n">
-        <v>279684.830763437</v>
+        <v>219515.2902175502</v>
       </c>
       <c r="G2" t="n">
         <v>279684.830763437</v>
       </c>
       <c r="H2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="I2" t="n">
         <v>279684.8307634371</v>
       </c>
       <c r="J2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="K2" t="n">
-        <v>279684.8307634371</v>
+        <v>279684.830763437</v>
       </c>
       <c r="L2" t="n">
         <v>279684.830763437</v>
@@ -26349,10 +26349,10 @@
         <v>279684.830763437</v>
       </c>
       <c r="N2" t="n">
+        <v>279684.830763437</v>
+      </c>
+      <c r="O2" t="n">
         <v>279684.8307634371</v>
-      </c>
-      <c r="O2" t="n">
-        <v>279684.830763437</v>
       </c>
       <c r="P2" t="n">
         <v>279684.830763437</v>
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751307</v>
+        <v>471995.0992489056</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23151.37050443034</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074427</v>
+        <v>38987.52889819869</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>394942.2080289242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>262827.3641644181</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.4065061342</v>
+        <v>24245.22799179776</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5005.218442393711</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.6067490486</v>
+        <v>8241.274813353699</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>99043.58793293637</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69617.08519290907</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.192147960263</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="C4" t="n">
-        <v>107.192147960263</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>105.5521581027501</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26456,7 +26456,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.11977902091</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902091</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="F5" t="n">
+        <v>51571.48185587223</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-477765.1420374583</v>
+        <v>-406356.7943303515</v>
       </c>
       <c r="C6" t="n">
-        <v>64890.29293767241</v>
+        <v>46295.67344995518</v>
       </c>
       <c r="D6" t="n">
-        <v>28522.23147926685</v>
+        <v>36990.04793844889</v>
       </c>
       <c r="E6" t="n">
-        <v>-426414.7957987997</v>
+        <v>-228144.0596041094</v>
       </c>
       <c r="F6" t="n">
-        <v>200719.8478348679</v>
+        <v>166798.1484248148</v>
       </c>
       <c r="G6" t="n">
-        <v>200719.8478348678</v>
+        <v>-58440.9204891975</v>
       </c>
       <c r="H6" t="n">
-        <v>200719.8478348683</v>
+        <v>204386.4436752204</v>
       </c>
       <c r="I6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752207</v>
       </c>
       <c r="J6" t="n">
-        <v>162298.4413287339</v>
+        <v>180141.2156834229</v>
       </c>
       <c r="K6" t="n">
-        <v>200719.847834868</v>
+        <v>199381.2252328269</v>
       </c>
       <c r="L6" t="n">
-        <v>190424.2410858194</v>
+        <v>196145.1688618668</v>
       </c>
       <c r="M6" t="n">
-        <v>40263.40596699055</v>
+        <v>105342.8557422842</v>
       </c>
       <c r="N6" t="n">
-        <v>200719.847834868</v>
+        <v>204386.4436752206</v>
       </c>
       <c r="O6" t="n">
-        <v>200719.847834868</v>
+        <v>134769.3584823117</v>
       </c>
       <c r="P6" t="n">
-        <v>200719.8478348679</v>
+        <v>204386.4436752204</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572211</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572211</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
+        <v>853.7106645376841</v>
+      </c>
+      <c r="F3" t="n">
+        <v>853.7106645376841</v>
+      </c>
+      <c r="G3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887088</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887088</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="F4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,26 +26959,26 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572211</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.52443243433669</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568352</v>
+        <v>33.71341500264811</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>343.8814983365338</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>236.0660360556139</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887088</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761104</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887091</v>
+        <v>92.66494928910186</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761081</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887088</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761104</v>
+        <v>32.56249654611858</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>397.4398000551209</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0586004549034</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877945</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I2" t="n">
-        <v>79.3641940376634</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593576</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154185</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871685</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270568</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695512</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961055</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656777</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744497</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253258</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611127</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339636</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645458</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986737</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358324</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206855</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720421</v>
+        <v>163.7876250036813</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914129</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P3" t="n">
-        <v>171.5470783449033</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050589</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727198</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297038</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055018</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179395</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864959</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793586</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120832</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421835</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199994</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N4" t="n">
-        <v>141.308030123369</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863685</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843224</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674038</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910843</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741627</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113013</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825131</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0586004549034</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877945</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>79.3641940376634</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593576</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154185</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871685</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270568</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695512</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961055</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656777</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744497</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253258</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611127</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339636</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645458</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986737</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358324</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206855</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N6" t="n">
-        <v>239.406586345822</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914129</v>
+        <v>189.3752746148964</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711235</v>
+        <v>195.5578073177395</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050589</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727198</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297038</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055018</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179395</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864959</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793586</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120832</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421835</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199994</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>141.308030123369</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863685</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843224</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674038</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910843</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741627</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113013</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825131</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>235.9393707926325</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33745,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043796</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718129</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997841</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729602</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744187</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040821</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.01831452431469</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559582</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986671</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887088</v>
+        <v>32.44591292034803</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469685</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P3" t="n">
-        <v>37.57267093057309</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945219</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394313</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813579</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043796</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718129</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997841</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729602</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744187</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040821</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431469</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559582</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986671</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N6" t="n">
-        <v>108.0648742624887</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469685</v>
+        <v>46.77903017045198</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679327</v>
+        <v>61.58339990340929</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945219</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394313</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813579</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>104.5976587092992</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
